--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -572,7 +572,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
